--- a/SomeResults.xlsx
+++ b/SomeResults.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>P_BestEver</t>
   </si>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>C_BestIter</t>
+  </si>
+  <si>
+    <t>C1_BestIter</t>
+  </si>
+  <si>
+    <t>C2_BestEver</t>
+  </si>
+  <si>
+    <t>C1_BestEver</t>
+  </si>
+  <si>
+    <t>C2_BestIter</t>
   </si>
 </sst>
 </file>
@@ -290,7 +302,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C_BestEver</c:v>
+                  <c:v>C1_BestEver</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -507,6 +519,208 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5_20_Compact'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2_BestEver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'5_20_Compact'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>633.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>967.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'5_20_Compact'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9505.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8859.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8217.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7762.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7497.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7156.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7077.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7025.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7009.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7004.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6969.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6952.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6773.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6741.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6677.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6671.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6669.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6661.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6637.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6629.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6616.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6597.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6560.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6537.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -515,11 +729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1533976160"/>
-        <c:axId val="-1548279312"/>
+        <c:axId val="-475551248"/>
+        <c:axId val="-475549888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1533976160"/>
+        <c:axId val="-475551248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,6 +753,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -575,12 +790,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1548279312"/>
+        <c:crossAx val="-475549888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1548279312"/>
+        <c:axId val="-475549888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1533976160"/>
+        <c:crossAx val="-475551248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -870,11 +1085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1492231168"/>
-        <c:axId val="-1549173088"/>
+        <c:axId val="-475574032"/>
+        <c:axId val="-475571984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1492231168"/>
+        <c:axId val="-475574032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,12 +1145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1549173088"/>
+        <c:crossAx val="-475571984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1549173088"/>
+        <c:axId val="-475571984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +1206,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1492231168"/>
+        <c:crossAx val="-475574032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1298,11 +1513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1530008368"/>
-        <c:axId val="-1530757248"/>
+        <c:axId val="-475499920"/>
+        <c:axId val="-475497440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1530008368"/>
+        <c:axId val="-475499920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,12 +1573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530757248"/>
+        <c:crossAx val="-475497440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1530757248"/>
+        <c:axId val="-475497440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530008368"/>
+        <c:crossAx val="-475499920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1433,7 +1648,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3172,16 +3386,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -50461,10 +50675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -50472,7 +50686,7 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -50480,13 +50694,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -50499,8 +50719,14 @@
       <c r="D2" s="1">
         <v>9089</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>9505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -50513,8 +50739,14 @@
       <c r="D3" s="1">
         <v>8669</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>8859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -50527,8 +50759,14 @@
       <c r="D4" s="1">
         <v>8233</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -50541,8 +50779,14 @@
       <c r="D5" s="1">
         <v>7943</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>7762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -50555,8 +50799,14 @@
       <c r="D6" s="1">
         <v>7617</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>23</v>
       </c>
@@ -50569,152 +50819,266 @@
       <c r="D7" s="1">
         <v>7419</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>7156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>7163</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>7104</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" s="1">
         <v>7088</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>7077</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>6974</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>6969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>43</v>
       </c>
       <c r="D13" s="1">
         <v>6951</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>47</v>
       </c>
       <c r="D14" s="1">
         <v>6918</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>6773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>48</v>
       </c>
       <c r="D15" s="1">
         <v>6895</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>49</v>
       </c>
       <c r="D16" s="1">
         <v>6877</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>6677</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>6741</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <v>6671</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>58</v>
       </c>
       <c r="D18" s="1">
         <v>6727</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>6669</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>59</v>
       </c>
       <c r="D19" s="1">
         <v>6708</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>6661</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>70</v>
       </c>
       <c r="D20" s="1">
         <v>6658</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>173</v>
+      </c>
+      <c r="F20">
+        <v>6637</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>71</v>
       </c>
       <c r="D21" s="1">
         <v>6649</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>176</v>
+      </c>
+      <c r="F21">
+        <v>6629</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>149</v>
       </c>
       <c r="D22" s="1">
         <v>6647</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>633</v>
+      </c>
+      <c r="F22">
+        <v>6616</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>153</v>
       </c>
       <c r="D23" s="1">
         <v>6612</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>634</v>
+      </c>
+      <c r="F23">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>446</v>
       </c>
       <c r="D24" s="1">
         <v>6600</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>635</v>
+      </c>
+      <c r="F24">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>558</v>
       </c>
       <c r="D25" s="1">
         <v>6590</v>
       </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>967</v>
+      </c>
+      <c r="F25">
+        <v>6537</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>567</v>
       </c>
@@ -50722,7 +51086,7 @@
         <v>6576</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>828</v>
       </c>
@@ -50730,7 +51094,7 @@
         <v>6567</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>838</v>
       </c>
@@ -50738,7 +51102,7 @@
         <v>6543</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>3779</v>
       </c>
